--- a/FreeCAD/Dimensions.xlsx
+++ b/FreeCAD/Dimensions.xlsx
@@ -21,6 +21,53 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+  <si>
+    <t>Main Cottage</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Sketch mm</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>External</t>
+  </si>
+  <si>
+    <t>RidgeLine</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>Section Scale</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Lower Floor Plan</t>
+  </si>
+  <si>
+    <t>External South</t>
+  </si>
+  <si>
+    <t>Lower Floor</t>
+  </si>
+  <si>
+    <t>North External</t>
+  </si>
+  <si>
+    <t>South External</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -370,28 +417,148 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D3:E5"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1">
+        <v>50</v>
+      </c>
+      <c r="M1">
+        <v>7000</v>
+      </c>
+      <c r="N1">
+        <f>M1/L1</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>95</v>
+      </c>
+      <c r="E2">
+        <f>D2*$N$2</f>
+        <v>10640</v>
+      </c>
+      <c r="K2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2">
+        <v>50</v>
+      </c>
+      <c r="M2">
+        <v>5600</v>
+      </c>
+      <c r="N2">
+        <f>M2/L2</f>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
       <c r="D3">
-        <f>7/50</f>
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="4:5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="E3">
+        <f>D3*$N$1</f>
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>40</v>
+      </c>
+      <c r="E4">
+        <f>D4*$N$1</f>
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
       <c r="D5">
-        <f>D3*50</f>
-        <v>7.0000000000000009</v>
+        <v>40</v>
       </c>
       <c r="E5">
-        <f>D3*30</f>
-        <v>4.2</v>
+        <f>D5*$N$2</f>
+        <v>4480</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>85</v>
+      </c>
+      <c r="E6">
+        <f>D6*N2</f>
+        <v>9520</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>53</v>
+      </c>
+      <c r="E7">
+        <f>D7*N2</f>
+        <v>5936</v>
       </c>
     </row>
   </sheetData>

--- a/FreeCAD/Dimensions.xlsx
+++ b/FreeCAD/Dimensions.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>Main Cottage</t>
   </si>
@@ -66,6 +66,15 @@
   </si>
   <si>
     <t>South External</t>
+  </si>
+  <si>
+    <t>Floor</t>
+  </si>
+  <si>
+    <t>External East Door Way</t>
+  </si>
+  <si>
+    <t>External Main Walls</t>
   </si>
 </sst>
 </file>
@@ -417,7 +426,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
@@ -529,36 +538,81 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="E6">
-        <f>D6*N2</f>
-        <v>9520</v>
+        <f>D6*N1</f>
+        <v>4200</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>15</v>
+      </c>
+      <c r="E7">
+        <f>D7*N1</f>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>85</v>
+      </c>
+      <c r="E8">
+        <f>D8*N2</f>
+        <v>9520</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C9" t="s">
         <v>8</v>
       </c>
-      <c r="D7">
+      <c r="D9">
         <v>53</v>
       </c>
-      <c r="E7">
-        <f>D7*N2</f>
+      <c r="E9">
+        <f>D9*N2</f>
         <v>5936</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>-22</v>
+      </c>
+      <c r="E10">
+        <f>D10*N1</f>
+        <v>-3080</v>
       </c>
     </row>
   </sheetData>
